--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efnb3</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J2">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1051366666666667</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N2">
-        <v>0.31541</v>
+        <v>0.19733</v>
       </c>
       <c r="O2">
-        <v>0.05266403705467093</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P2">
-        <v>0.06261614837928776</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q2">
-        <v>0.009184984518888887</v>
+        <v>0.004691652303333333</v>
       </c>
       <c r="R2">
-        <v>0.08266486066999998</v>
+        <v>0.04222487073</v>
       </c>
       <c r="S2">
-        <v>0.003037477943482256</v>
+        <v>0.003261008240123876</v>
       </c>
       <c r="T2">
-        <v>0.004639339230703146</v>
+        <v>0.004536471822568069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J3">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9215286666666668</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N3">
         <v>2.764586</v>
       </c>
       <c r="O3">
-        <v>0.4616031817153055</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P3">
-        <v>0.5488339849189997</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q3">
-        <v>0.08050689455355556</v>
+        <v>0.06572987520733334</v>
       </c>
       <c r="R3">
-        <v>0.724562050982</v>
+        <v>0.591568876866</v>
       </c>
       <c r="S3">
-        <v>0.02662366125950298</v>
+        <v>0.04568660480682667</v>
       </c>
       <c r="T3">
-        <v>0.04066406355680762</v>
+        <v>0.06355580241253823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H4">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I4">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J4">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9518975000000001</v>
+        <v>1.1590695</v>
       </c>
       <c r="N4">
-        <v>1.903795</v>
+        <v>2.318139</v>
       </c>
       <c r="O4">
-        <v>0.4768152424994321</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P4">
-        <v>0.3779471488023404</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q4">
-        <v>0.08315998669416666</v>
+        <v>0.08267295022649999</v>
       </c>
       <c r="R4">
-        <v>0.498959920165</v>
+        <v>0.496037701359</v>
       </c>
       <c r="S4">
-        <v>0.02750103985960402</v>
+        <v>0.05746316105573802</v>
       </c>
       <c r="T4">
-        <v>0.02800276094834183</v>
+        <v>0.05329231365882593</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,46 +720,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.08736233333333332</v>
+        <v>0.3509106666666666</v>
       </c>
       <c r="H5">
-        <v>0.262087</v>
+        <v>1.052732</v>
       </c>
       <c r="I5">
-        <v>0.05767651158852534</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J5">
-        <v>0.07409173752753134</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01780266666666667</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N5">
-        <v>0.053408</v>
+        <v>0.19733</v>
       </c>
       <c r="O5">
-        <v>0.008917538730591501</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P5">
-        <v>0.01060271789937225</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q5">
-        <v>0.001555282499555555</v>
+        <v>0.02308173395111111</v>
       </c>
       <c r="R5">
-        <v>0.013997542496</v>
+        <v>0.20773560556</v>
       </c>
       <c r="S5">
-        <v>0.0005143325259360842</v>
+        <v>0.01604332967245731</v>
       </c>
       <c r="T5">
-        <v>0.0007855737916787473</v>
+        <v>0.02231828552402189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,40 +788,40 @@
         <v>1.052732</v>
       </c>
       <c r="I6">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J6">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1051366666666667</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N6">
-        <v>0.31541</v>
+        <v>2.764586</v>
       </c>
       <c r="O6">
-        <v>0.05266403705467093</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P6">
-        <v>0.06261614837928776</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q6">
-        <v>0.0368935777911111</v>
+        <v>0.3233742387724444</v>
       </c>
       <c r="R6">
-        <v>0.33204220012</v>
+        <v>2.910368148952</v>
       </c>
       <c r="S6">
-        <v>0.01220072048746394</v>
+        <v>0.2247664552063046</v>
       </c>
       <c r="T6">
-        <v>0.01863496040252506</v>
+        <v>0.312678354551835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,164 +850,164 @@
         <v>1.052732</v>
       </c>
       <c r="I7">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J7">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9215286666666668</v>
+        <v>1.1590695</v>
       </c>
       <c r="N7">
-        <v>2.764586</v>
+        <v>2.318139</v>
       </c>
       <c r="O7">
-        <v>0.4616031817153055</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P7">
-        <v>0.5488339849189997</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q7">
-        <v>0.3233742387724445</v>
+        <v>0.406729850958</v>
       </c>
       <c r="R7">
-        <v>2.910368148952001</v>
+        <v>2.440379105748</v>
       </c>
       <c r="S7">
-        <v>0.1069399862070194</v>
+        <v>0.282704111414234</v>
       </c>
       <c r="T7">
-        <v>0.1633364529957045</v>
+        <v>0.2621846049073663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.3509106666666666</v>
+        <v>0.248061</v>
       </c>
       <c r="H8">
-        <v>1.052732</v>
+        <v>0.496122</v>
       </c>
       <c r="I8">
-        <v>0.2316708169333521</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J8">
-        <v>0.2976063026049867</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.9518975000000001</v>
+        <v>0.06577666666666666</v>
       </c>
       <c r="N8">
-        <v>1.903795</v>
+        <v>0.19733</v>
       </c>
       <c r="O8">
-        <v>0.4768152424994321</v>
+        <v>0.03064547051388741</v>
       </c>
       <c r="P8">
-        <v>0.3779471488023404</v>
+        <v>0.03737271676147313</v>
       </c>
       <c r="Q8">
-        <v>0.3340309863233333</v>
+        <v>0.01631662571</v>
       </c>
       <c r="R8">
-        <v>2.00418591794</v>
+        <v>0.09789975426</v>
       </c>
       <c r="S8">
-        <v>0.1104641767561178</v>
+        <v>0.01134113260130622</v>
       </c>
       <c r="T8">
-        <v>0.1124794535351612</v>
+        <v>0.01051795941488317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.3509106666666666</v>
+        <v>0.248061</v>
       </c>
       <c r="H9">
-        <v>1.052732</v>
+        <v>0.496122</v>
       </c>
       <c r="I9">
-        <v>0.2316708169333521</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J9">
-        <v>0.2976063026049867</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01780266666666667</v>
+        <v>0.9215286666666667</v>
       </c>
       <c r="N9">
-        <v>0.053408</v>
+        <v>2.764586</v>
       </c>
       <c r="O9">
-        <v>0.008917538730591501</v>
+        <v>0.4293419082050673</v>
       </c>
       <c r="P9">
-        <v>0.01060271789937225</v>
+        <v>0.5235903792668827</v>
       </c>
       <c r="Q9">
-        <v>0.006247145628444445</v>
+        <v>0.228595322582</v>
       </c>
       <c r="R9">
-        <v>0.056224310656</v>
+        <v>1.371571935492</v>
       </c>
       <c r="S9">
-        <v>0.002065933482750941</v>
+        <v>0.1588888481919362</v>
       </c>
       <c r="T9">
-        <v>0.003155435671595887</v>
+        <v>0.1473562223025095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,495 +1015,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H10">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I10">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J10">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1051366666666667</v>
+        <v>1.1590695</v>
       </c>
       <c r="N10">
-        <v>0.31541</v>
+        <v>2.318139</v>
       </c>
       <c r="O10">
-        <v>0.05266403705467093</v>
+        <v>0.5400126212810453</v>
       </c>
       <c r="P10">
-        <v>0.06261614837928776</v>
+        <v>0.4390369039716442</v>
       </c>
       <c r="Q10">
-        <v>0.1058468122816667</v>
+        <v>0.2875199392395</v>
       </c>
       <c r="R10">
-        <v>0.6350808736899999</v>
+        <v>1.150079756958</v>
       </c>
       <c r="S10">
-        <v>0.03500358188217852</v>
+        <v>0.1998453488110734</v>
       </c>
       <c r="T10">
-        <v>0.03564217719716683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.0067545</v>
-      </c>
-      <c r="H11">
-        <v>2.013509</v>
-      </c>
-      <c r="I11">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J11">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.9215286666666668</v>
-      </c>
-      <c r="N11">
-        <v>2.764586</v>
-      </c>
-      <c r="O11">
-        <v>0.4616031817153055</v>
-      </c>
-      <c r="P11">
-        <v>0.5488339849189997</v>
-      </c>
-      <c r="Q11">
-        <v>0.9277531320456668</v>
-      </c>
-      <c r="R11">
-        <v>5.566518792274</v>
-      </c>
-      <c r="S11">
-        <v>0.3068083206661945</v>
-      </c>
-      <c r="T11">
-        <v>0.3124056437297698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.0067545</v>
-      </c>
-      <c r="H12">
-        <v>2.013509</v>
-      </c>
-      <c r="I12">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J12">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.9518975000000001</v>
-      </c>
-      <c r="N12">
-        <v>1.903795</v>
-      </c>
-      <c r="O12">
-        <v>0.4768152424994321</v>
-      </c>
-      <c r="P12">
-        <v>0.3779471488023404</v>
-      </c>
-      <c r="Q12">
-        <v>0.9583270916637501</v>
-      </c>
-      <c r="R12">
-        <v>3.833308366655</v>
-      </c>
-      <c r="S12">
-        <v>0.3169191409722998</v>
-      </c>
-      <c r="T12">
-        <v>0.2151339486290233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.0067545</v>
-      </c>
-      <c r="H13">
-        <v>2.013509</v>
-      </c>
-      <c r="I13">
-        <v>0.6646581583907257</v>
-      </c>
-      <c r="J13">
-        <v>0.569217017010848</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.01780266666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.053408</v>
-      </c>
-      <c r="O13">
-        <v>0.008917538730591501</v>
-      </c>
-      <c r="P13">
-        <v>0.01060271789937225</v>
-      </c>
-      <c r="Q13">
-        <v>0.01792291477866667</v>
-      </c>
-      <c r="R13">
-        <v>0.107537488672</v>
-      </c>
-      <c r="S13">
-        <v>0.005927114870052918</v>
-      </c>
-      <c r="T13">
-        <v>0.006035247454888198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.209003</v>
-      </c>
-      <c r="I14">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J14">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.1051366666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.31541</v>
-      </c>
-      <c r="O14">
-        <v>0.05266403705467093</v>
-      </c>
-      <c r="P14">
-        <v>0.06261614837928776</v>
-      </c>
-      <c r="Q14">
-        <v>0.007324626247777777</v>
-      </c>
-      <c r="R14">
-        <v>0.06592163623</v>
-      </c>
-      <c r="S14">
-        <v>0.002422256741546212</v>
-      </c>
-      <c r="T14">
-        <v>0.003699671548892734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.209003</v>
-      </c>
-      <c r="I15">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J15">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.9215286666666668</v>
-      </c>
-      <c r="N15">
-        <v>2.764586</v>
-      </c>
-      <c r="O15">
-        <v>0.4616031817153055</v>
-      </c>
-      <c r="P15">
-        <v>0.5488339849189997</v>
-      </c>
-      <c r="Q15">
-        <v>0.06420075197311112</v>
-      </c>
-      <c r="R15">
-        <v>0.5778067677580001</v>
-      </c>
-      <c r="S15">
-        <v>0.02123121358258862</v>
-      </c>
-      <c r="T15">
-        <v>0.03242782463671783</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.209003</v>
-      </c>
-      <c r="I16">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J16">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.9518975000000001</v>
-      </c>
-      <c r="N16">
-        <v>1.903795</v>
-      </c>
-      <c r="O16">
-        <v>0.4768152424994321</v>
-      </c>
-      <c r="P16">
-        <v>0.3779471488023404</v>
-      </c>
-      <c r="Q16">
-        <v>0.06631647773083334</v>
-      </c>
-      <c r="R16">
-        <v>0.397898866385</v>
-      </c>
-      <c r="S16">
-        <v>0.02193088491141041</v>
-      </c>
-      <c r="T16">
-        <v>0.02233098568981403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.209003</v>
-      </c>
-      <c r="I17">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J17">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01780266666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.053408</v>
-      </c>
-      <c r="O17">
-        <v>0.008917538730591501</v>
-      </c>
-      <c r="P17">
-        <v>0.01060271789937225</v>
-      </c>
-      <c r="Q17">
-        <v>0.001240270247111111</v>
-      </c>
-      <c r="R17">
-        <v>0.011162432224</v>
-      </c>
-      <c r="S17">
-        <v>0.0004101578518515587</v>
-      </c>
-      <c r="T17">
-        <v>0.00062646098120942</v>
+        <v>0.1235599854054521</v>
       </c>
     </row>
   </sheetData>
